--- a/Docs/需求/範本匯入紀錄/(正式35)1131212專家資料匯入-講訓、綠色、環資.1267.xlsx
+++ b/Docs/需求/範本匯入紀錄/(正式35)1131212專家資料匯入-講訓、綠色、環資.1267.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\新增專家委員\33給資訊室資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增專家委員\33給資訊室資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B3DCCE-CB59-49A3-B2F8-B5F50F6075D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC518B95-16DB-4E49-94B6-0B38B9FC17F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -1082,10 +1082,19 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>台中市</t>
-    </r>
-  </si>
-  <si>
+      <t>潭子區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私立</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1093,10 +1102,28 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>潭子區</t>
-    </r>
-  </si>
-  <si>
+      <t>大同大學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電機工程學系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="4"/>
+      </rPr>
+      <t>講座</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1104,7 +1131,19 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>台中市潭子區大豐路二段</t>
+      <t>教授</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中山北路三段</t>
     </r>
     <r>
       <rPr>
@@ -1112,7 +1151,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>113</t>
+      <t>40</t>
     </r>
     <r>
       <rPr>
@@ -1121,7 +1160,19 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>巷</t>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>松仁路</t>
     </r>
     <r>
       <rPr>
@@ -1129,7 +1180,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>105</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1146,61 +1197,11 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>私立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>大同大學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>電機工程學系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="4"/>
-      </rPr>
-      <t>講座</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>教授</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中山北路三段</t>
+      <t>安仁里縣府一街</t>
     </r>
     <r>
       <rPr>
@@ -1208,7 +1209,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>40</t>
+      <t>52</t>
     </r>
     <r>
       <rPr>
@@ -1225,11 +1226,63 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="4"/>
+      </rPr>
+      <t>環境部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>松仁路</t>
+      <t>環境管理署</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-26318652#4160</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-26525245</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺灣大道六段1018號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03,D05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>財團法人中華經濟研究院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大豐路二段</t>
     </r>
     <r>
       <rPr>
@@ -1237,7 +1290,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
+      <t>113</t>
     </r>
     <r>
       <rPr>
@@ -1246,19 +1299,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>安仁里縣府一街</t>
+      <t>巷</t>
     </r>
     <r>
       <rPr>
@@ -1266,7 +1307,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>52</t>
+      <t>105</t>
     </r>
     <r>
       <rPr>
@@ -1278,58 +1319,6 @@
       <t>號</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="4"/>
-      </rPr>
-      <t>環境部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>環境管理署</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-26318652#4160</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-26525245</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>臺灣大道六段1018號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D03,D05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>財團法人中華經濟研究院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D42</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1724,27 +1713,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{D68EA2F6-A5A2-474D-BEC4-F3B1768F4CAE}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1857,7 +1826,7 @@
                   <a14:compatExt spid="_x0000_s2123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2422,10 +2391,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5:AA8"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2563,11 +2532,11 @@
         <v>50</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M2" s="50" t="s">
         <v>46</v>
@@ -2580,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R2" s="41" t="s">
         <v>13</v>
@@ -2598,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="W2" s="48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X2" s="41" t="s">
         <v>42</v>
@@ -2610,7 +2579,7 @@
         <v>113</v>
       </c>
       <c r="AA2" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="9" customFormat="1" ht="33" customHeight="1">
@@ -2688,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>61</v>
@@ -2768,7 +2737,7 @@
         <v>72</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -2778,19 +2747,19 @@
         <v>14</v>
       </c>
       <c r="W5" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X5" s="33" t="s">
         <v>73</v>
       </c>
       <c r="Y5" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z5" s="33">
         <v>113</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="33" customHeight="1">
@@ -2812,10 +2781,10 @@
         <v>65</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>75</v>
@@ -2836,7 +2805,7 @@
         <v>78</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
@@ -2846,19 +2815,19 @@
         <v>5</v>
       </c>
       <c r="W6" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X6" s="33" t="s">
         <v>73</v>
       </c>
       <c r="Y6" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z6" s="33">
         <v>113</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="11" customFormat="1" ht="33" customHeight="1">
@@ -2905,26 +2874,26 @@
         <v>17</v>
       </c>
       <c r="T7" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U7" s="33"/>
       <c r="V7" s="56" t="s">
         <v>85</v>
       </c>
       <c r="W7" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X7" s="33" t="s">
         <v>73</v>
       </c>
       <c r="Y7" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z7" s="33">
         <v>113</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="11" customFormat="1" ht="33" customHeight="1">
@@ -2964,33 +2933,33 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="34"/>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="S8" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="33" t="s">
-        <v>93</v>
+      <c r="T8" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="U8" s="33"/>
       <c r="V8" s="56" t="s">
         <v>85</v>
       </c>
       <c r="W8" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X8" s="33" t="s">
         <v>73</v>
       </c>
       <c r="Y8" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z8" s="33">
         <v>113</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="9" customFormat="1" ht="33" customHeight="1">
@@ -5173,27 +5142,30 @@
   <autoFilter ref="A1:AA71" xr:uid="{D89D56AA-2212-4939-986A-F8D5C1531DF4}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576 S2:S1048576" xr:uid="{7DA5229D-5079-469B-AA6A-B4227EEBEF41}">
       <formula1>INDIRECT(O2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4 O2:O4 O9:O1048576 D1:E1048576 F1:F4 F9:F1048576 X1:X4 X9:X1048576 R7:R1048576" xr:uid="{5CA41F89-786C-4C54-B0A5-9EED1CABCDEC}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -5243,41 +5215,5 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5CA41F89-786C-4C54-B0A5-9EED1CABCDEC}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{042C5CCC-2FC8-4A6F-AEE5-7EAEE4B4A0A2}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1450B070-B3A4-466B-B9BB-14C3A4F2D737}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>X1:X4 X9:X1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E2AA64B-26D7-4079-9CFA-EED8134756B1}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F4 F9:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8861D6BC-975D-4829-BC3C-282564C08534}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>R9:R1048576 R2:R4 O2:O4 O9:O1048576 R7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>